--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/05,25/12,05,25 Ост СЫР филиалы/дв 12,05,25 днрсч ост сыр.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/05,25/12,05,25 Ост СЫР филиалы/дв 12,05,25 днрсч ост сыр.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\12,05,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\05,25\12,05,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B9A0B6-002A-4C43-B0DE-E2AE384C4DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99924458-1339-4EDF-9899-209F30E11166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AF$51</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -68,9 +76,6 @@
   </si>
   <si>
     <t>ср нов</t>
-  </si>
-  <si>
-    <t>расчет</t>
   </si>
   <si>
     <t>заказ филиала</t>
@@ -430,6 +435,12 @@
       </rPr>
       <t xml:space="preserve"> / 17,03,25 завод не отгрузил / 13,01,25 завод не отгрузил</t>
     </r>
+  </si>
+  <si>
+    <t>заказ</t>
+  </si>
+  <si>
+    <t>19,05,</t>
   </si>
 </sst>
 </file>
@@ -961,7 +972,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,55 +1148,55 @@
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -1222,45 +1233,47 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -1402,10 +1415,10 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>55</v>
@@ -1484,7 +1497,7 @@
         <v>3.2</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF6" s="1">
         <f>G6*P6</f>
@@ -1512,10 +1525,10 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>145</v>
@@ -1592,7 +1605,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE7" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF7" s="1">
         <f>G7*P7</f>
@@ -1620,10 +1633,10 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>132</v>
@@ -1700,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="AE8" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF8" s="1">
         <f>G8*P8</f>
@@ -1728,10 +1741,10 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="12">
         <v>16</v>
@@ -1748,7 +1761,7 @@
         <v>#N/A</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="12">
         <v>11</v>
@@ -1829,10 +1842,10 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -1849,7 +1862,7 @@
         <v>#N/A</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="12">
         <v>7</v>
@@ -1930,10 +1943,10 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="12">
         <v>-1</v>
@@ -1950,7 +1963,7 @@
         <v>#N/A</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="12">
         <v>30</v>
@@ -2031,10 +2044,10 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>43</v>
@@ -2140,10 +2153,10 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>33</v>
@@ -2220,7 +2233,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AE13" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF13" s="1">
         <f>G13*P13</f>
@@ -2248,10 +2261,10 @@
     </row>
     <row r="14" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>110</v>
@@ -2328,7 +2341,7 @@
         <v>7.2</v>
       </c>
       <c r="AE14" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" ref="AF14:AF27" si="7">G14*P14</f>
@@ -2356,10 +2369,10 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -2428,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="7"/>
@@ -2456,10 +2469,10 @@
     </row>
     <row r="16" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="C16" s="19">
         <v>24.51</v>
@@ -2476,7 +2489,7 @@
         <v>#N/A</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="12">
         <v>2.5</v>
@@ -2534,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF16" s="12"/>
       <c r="AG16" s="1"/>
@@ -2559,10 +2572,10 @@
     </row>
     <row r="17" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>417</v>
@@ -2639,7 +2652,7 @@
         <v>4.2</v>
       </c>
       <c r="AE17" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="7"/>
@@ -2667,10 +2680,10 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="16">
         <v>241</v>
@@ -2747,7 +2760,7 @@
         <v>17.2</v>
       </c>
       <c r="AE18" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" si="7"/>
@@ -2775,10 +2788,10 @@
     </row>
     <row r="19" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2795,7 +2808,7 @@
         <v>#N/A</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="12">
         <v>2</v>
@@ -2876,10 +2889,10 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="16">
         <v>268</v>
@@ -2956,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF20" s="1">
         <f t="shared" si="7"/>
@@ -2984,10 +2997,10 @@
     </row>
     <row r="21" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -3004,7 +3017,7 @@
         <v>#N/A</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J21" s="12">
         <v>5</v>
@@ -3085,10 +3098,10 @@
     </row>
     <row r="22" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1">
         <v>188</v>
@@ -3165,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="7"/>
@@ -3193,10 +3206,10 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="16">
         <v>38</v>
@@ -3273,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="AE23" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" si="7"/>
@@ -3301,10 +3314,10 @@
     </row>
     <row r="24" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="19">
         <v>-2</v>
@@ -3321,7 +3334,7 @@
         <v>#N/A</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24" s="12">
         <v>3</v>
@@ -3402,10 +3415,10 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="16">
         <v>291</v>
@@ -3482,7 +3495,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AE25" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF25" s="1">
         <f t="shared" si="7"/>
@@ -3510,10 +3523,10 @@
     </row>
     <row r="26" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -3530,7 +3543,7 @@
         <v>#N/A</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J26" s="12">
         <v>2</v>
@@ -3611,10 +3624,10 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="16">
         <v>127</v>
@@ -3691,7 +3704,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AE27" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF27" s="1">
         <f t="shared" si="7"/>
@@ -3719,10 +3732,10 @@
     </row>
     <row r="28" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -3739,7 +3752,7 @@
         <v>#N/A</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="12">
         <v>2</v>
@@ -3820,10 +3833,10 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="16">
         <v>88.302000000000007</v>
@@ -3900,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF29" s="1">
         <f>G29*P29</f>
@@ -3928,10 +3941,10 @@
     </row>
     <row r="30" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -3948,7 +3961,7 @@
         <v>#N/A</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="12">
         <v>2.5</v>
@@ -4029,10 +4042,10 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4101,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF31" s="23">
         <f>G31*P31</f>
@@ -4129,10 +4142,10 @@
     </row>
     <row r="32" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="19">
         <v>45.203000000000003</v>
@@ -4149,7 +4162,7 @@
         <v>#N/A</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12">
@@ -4205,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF32" s="12"/>
       <c r="AG32" s="1"/>
@@ -4230,10 +4243,10 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="16">
         <v>39.095999999999997</v>
@@ -4310,7 +4323,7 @@
         <v>2.0139999999999998</v>
       </c>
       <c r="AE33" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF33" s="1">
         <f>G33*P33</f>
@@ -4338,10 +4351,10 @@
     </row>
     <row r="34" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="19">
         <v>40.384</v>
@@ -4360,7 +4373,7 @@
         <v>#N/A</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34" s="12">
         <v>2.5</v>
@@ -4418,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF34" s="12"/>
       <c r="AG34" s="1"/>
@@ -4443,10 +4456,10 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -4541,10 +4554,10 @@
     </row>
     <row r="36" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="19">
         <v>24.24</v>
@@ -4561,7 +4574,7 @@
         <v>#N/A</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12">
@@ -4617,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF36" s="12"/>
       <c r="AG36" s="1"/>
@@ -4642,10 +4655,10 @@
     </row>
     <row r="37" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>82</v>
@@ -4751,10 +4764,10 @@
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="16">
         <v>105.748</v>
@@ -4831,7 +4844,7 @@
         <v>0.59460000000000002</v>
       </c>
       <c r="AE38" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF38" s="1">
         <f>G38*P38</f>
@@ -4859,10 +4872,10 @@
     </row>
     <row r="39" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="19">
         <v>-2.9079999999999999</v>
@@ -4879,7 +4892,7 @@
         <v>#N/A</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J39" s="12">
         <v>2.5</v>
@@ -4960,10 +4973,10 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="16">
         <v>137</v>
@@ -5069,10 +5082,10 @@
     </row>
     <row r="41" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="19">
         <v>-4</v>
@@ -5089,7 +5102,7 @@
         <v>#N/A</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12">
@@ -5168,10 +5181,10 @@
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
         <v>113</v>
@@ -5251,7 +5264,7 @@
         <v>7.4</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF42" s="1">
         <f t="shared" ref="AF42:AF47" si="10">G42*P42</f>
@@ -5279,10 +5292,10 @@
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1">
         <v>152.18</v>
@@ -5355,7 +5368,7 @@
         <v>13.333</v>
       </c>
       <c r="AE43" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="10"/>
@@ -5383,10 +5396,10 @@
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>398</v>
@@ -5463,7 +5476,7 @@
         <v>3.2</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF44" s="1">
         <f t="shared" si="10"/>
@@ -5491,10 +5504,10 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1">
         <v>335</v>
@@ -5576,7 +5589,7 @@
         <v>31.2</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF45" s="1">
         <f t="shared" si="10"/>
@@ -5604,10 +5617,10 @@
     </row>
     <row r="46" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1">
         <v>229</v>
@@ -5684,7 +5697,7 @@
         <v>1.4</v>
       </c>
       <c r="AE46" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF46" s="1">
         <f t="shared" si="10"/>
@@ -5712,10 +5725,10 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="16">
         <v>195.11799999999999</v>
@@ -5788,7 +5801,7 @@
         <v>1.907</v>
       </c>
       <c r="AE47" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF47" s="1">
         <f t="shared" si="10"/>
@@ -5816,10 +5829,10 @@
     </row>
     <row r="48" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="19">
         <v>-17.324999999999999</v>
@@ -5836,7 +5849,7 @@
         <v>#N/A</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12">
@@ -5915,10 +5928,10 @@
     </row>
     <row r="49" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1">
         <v>177</v>
@@ -5995,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="AE49" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF49" s="1">
         <f>G49*P49</f>
@@ -6023,10 +6036,10 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="16">
         <v>711.16300000000001</v>
@@ -6103,7 +6116,7 @@
         <v>6.2431999999999999</v>
       </c>
       <c r="AE50" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF50" s="1">
         <f>G50*P50</f>
@@ -6131,10 +6144,10 @@
     </row>
     <row r="51" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="19">
         <v>-223.70500000000001</v>
@@ -6153,7 +6166,7 @@
         <v>#N/A</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J51" s="12">
         <v>52.5</v>
@@ -6287,10 +6300,10 @@
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="16">
         <v>264</v>
@@ -6390,10 +6403,10 @@
     </row>
     <row r="54" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="C54" s="19">
         <v>303</v>
@@ -6412,7 +6425,7 @@
         <v>120</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J54" s="12">
         <v>4</v>
@@ -6470,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF54" s="12"/>
       <c r="AG54" s="1"/>
@@ -6495,10 +6508,10 @@
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="1">
         <v>400</v>
@@ -6573,7 +6586,7 @@
         <v>47.4</v>
       </c>
       <c r="AE55" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
